--- a/natmiOut/OldD0/LR-pairs_lrc2p/Adam15-Itgb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Adam15-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.7001225567236</v>
+        <v>35.995988</v>
       </c>
       <c r="H2">
-        <v>31.7001225567236</v>
+        <v>107.987964</v>
       </c>
       <c r="I2">
-        <v>0.5337678059917443</v>
+        <v>0.5613901502831141</v>
       </c>
       <c r="J2">
-        <v>0.5337678059917443</v>
+        <v>0.561390150283114</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N2">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q2">
-        <v>3353.263391601829</v>
+        <v>4213.134685213245</v>
       </c>
       <c r="R2">
-        <v>3353.263391601829</v>
+        <v>37918.2121669192</v>
       </c>
       <c r="S2">
-        <v>0.1624135033357445</v>
+        <v>0.1821916307410376</v>
       </c>
       <c r="T2">
-        <v>0.1624135033357445</v>
+        <v>0.1821916307410376</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.7001225567236</v>
+        <v>35.995988</v>
       </c>
       <c r="H3">
-        <v>31.7001225567236</v>
+        <v>107.987964</v>
       </c>
       <c r="I3">
-        <v>0.5337678059917443</v>
+        <v>0.5613901502831141</v>
       </c>
       <c r="J3">
-        <v>0.5337678059917443</v>
+        <v>0.561390150283114</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N3">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q3">
-        <v>3217.285565361247</v>
+        <v>3656.473804890219</v>
       </c>
       <c r="R3">
-        <v>3217.285565361247</v>
+        <v>32908.26424401197</v>
       </c>
       <c r="S3">
-        <v>0.1558274906798277</v>
+        <v>0.1581195416355691</v>
       </c>
       <c r="T3">
-        <v>0.1558274906798277</v>
+        <v>0.158119541635569</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.7001225567236</v>
+        <v>35.995988</v>
       </c>
       <c r="H4">
-        <v>31.7001225567236</v>
+        <v>107.987964</v>
       </c>
       <c r="I4">
-        <v>0.5337678059917443</v>
+        <v>0.5613901502831141</v>
       </c>
       <c r="J4">
-        <v>0.5337678059917443</v>
+        <v>0.561390150283114</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N4">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q4">
-        <v>4449.865027628467</v>
+        <v>5112.394604521195</v>
       </c>
       <c r="R4">
-        <v>4449.865027628467</v>
+        <v>46011.55144069075</v>
       </c>
       <c r="S4">
-        <v>0.2155268119761722</v>
+        <v>0.2210789779065074</v>
       </c>
       <c r="T4">
-        <v>0.2155268119761722</v>
+        <v>0.2210789779065074</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.3071669509729</v>
+        <v>20.666474</v>
       </c>
       <c r="H5">
-        <v>20.3071669509729</v>
+        <v>61.999422</v>
       </c>
       <c r="I5">
-        <v>0.3419328089326218</v>
+        <v>0.3223124461726698</v>
       </c>
       <c r="J5">
-        <v>0.3419328089326218</v>
+        <v>0.3223124461726698</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N5">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q5">
-        <v>2148.107768416212</v>
+        <v>2418.898418080862</v>
       </c>
       <c r="R5">
-        <v>2148.107768416212</v>
+        <v>21770.08576272776</v>
       </c>
       <c r="S5">
-        <v>0.1040424408905579</v>
+        <v>0.1046021739902584</v>
       </c>
       <c r="T5">
-        <v>0.1040424408905579</v>
+        <v>0.1046021739902584</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.3071669509729</v>
+        <v>20.666474</v>
       </c>
       <c r="H6">
-        <v>20.3071669509729</v>
+        <v>61.999422</v>
       </c>
       <c r="I6">
-        <v>0.3419328089326218</v>
+        <v>0.3223124461726698</v>
       </c>
       <c r="J6">
-        <v>0.3419328089326218</v>
+        <v>0.3223124461726698</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N6">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q6">
-        <v>2061.000079347918</v>
+        <v>2099.301200468362</v>
       </c>
       <c r="R6">
-        <v>2061.000079347918</v>
+        <v>18893.71080421526</v>
       </c>
       <c r="S6">
-        <v>0.09982342696385765</v>
+        <v>0.09078160033010915</v>
       </c>
       <c r="T6">
-        <v>0.09982342696385765</v>
+        <v>0.09078160033010914</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.3071669509729</v>
+        <v>20.666474</v>
       </c>
       <c r="H7">
-        <v>20.3071669509729</v>
+        <v>61.999422</v>
       </c>
       <c r="I7">
-        <v>0.3419328089326218</v>
+        <v>0.3223124461726698</v>
       </c>
       <c r="J7">
-        <v>0.3419328089326218</v>
+        <v>0.3223124461726698</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N7">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q7">
-        <v>2850.593144037567</v>
+        <v>2935.19294906081</v>
       </c>
       <c r="R7">
-        <v>2850.593144037567</v>
+        <v>26416.7365415473</v>
       </c>
       <c r="S7">
-        <v>0.1380669410782062</v>
+        <v>0.1269286718523022</v>
       </c>
       <c r="T7">
-        <v>0.1380669410782062</v>
+        <v>0.1269286718523022</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.3820595704566</v>
+        <v>7.456917333333333</v>
       </c>
       <c r="H8">
-        <v>7.3820595704566</v>
+        <v>22.370752</v>
       </c>
       <c r="I8">
-        <v>0.124299385075634</v>
+        <v>0.116297403544216</v>
       </c>
       <c r="J8">
-        <v>0.124299385075634</v>
+        <v>0.116297403544216</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N8">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q8">
-        <v>780.8799498469357</v>
+        <v>872.7916306071253</v>
       </c>
       <c r="R8">
-        <v>780.8799498469357</v>
+        <v>7855.124675464128</v>
       </c>
       <c r="S8">
-        <v>0.03782149909753963</v>
+        <v>0.03774275981148537</v>
       </c>
       <c r="T8">
-        <v>0.03782149909753963</v>
+        <v>0.03774275981148537</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.3820595704566</v>
+        <v>7.456917333333333</v>
       </c>
       <c r="H9">
-        <v>7.3820595704566</v>
+        <v>22.370752</v>
       </c>
       <c r="I9">
-        <v>0.124299385075634</v>
+        <v>0.116297403544216</v>
       </c>
       <c r="J9">
-        <v>0.124299385075634</v>
+        <v>0.116297403544216</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N9">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q9">
-        <v>749.2145702644751</v>
+        <v>757.4739411115804</v>
       </c>
       <c r="R9">
-        <v>749.2145702644751</v>
+        <v>6817.265470004224</v>
       </c>
       <c r="S9">
-        <v>0.03628780352047169</v>
+        <v>0.03275599355019777</v>
       </c>
       <c r="T9">
-        <v>0.03628780352047169</v>
+        <v>0.03275599355019777</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.3820595704566</v>
+        <v>7.456917333333333</v>
       </c>
       <c r="H10">
-        <v>7.3820595704566</v>
+        <v>22.370752</v>
       </c>
       <c r="I10">
-        <v>0.124299385075634</v>
+        <v>0.116297403544216</v>
       </c>
       <c r="J10">
-        <v>0.124299385075634</v>
+        <v>0.116297403544216</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N10">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q10">
-        <v>1036.247372724353</v>
+        <v>1059.082027177415</v>
       </c>
       <c r="R10">
-        <v>1036.247372724353</v>
+        <v>9531.738244596736</v>
       </c>
       <c r="S10">
-        <v>0.05019008245762266</v>
+        <v>0.04579865018253289</v>
       </c>
       <c r="T10">
-        <v>0.05019008245762266</v>
+        <v>0.04579865018253289</v>
       </c>
     </row>
   </sheetData>
